--- a/BaseCorrection_Normalization/Base Archive.xlsx
+++ b/BaseCorrection_Normalization/Base Archive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimkecoglu/Documents/GitHub/PhotonicsLab/BaseCorrection_Normalization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67728993-0836-4A44-9A34-1B26B855287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3857D688-0596-3E44-845E-1EEFD270291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="2880" windowWidth="28040" windowHeight="17360" xr2:uid="{A29EE00B-A513-624F-BACA-D2844C99D9B2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28040" windowHeight="17360" xr2:uid="{A29EE00B-A513-624F-BACA-D2844C99D9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,25 +35,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Pure Cell Line</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>uur</t>
   </si>
   <si>
-    <t>Mixed Cell Lines</t>
+    <t>Pure Cell Lines (Exosome)</t>
+  </si>
+  <si>
+    <t>Mixed Cell Lines (Exosome)</t>
+  </si>
+  <si>
+    <t>Wheat leaf</t>
+  </si>
+  <si>
+    <t>Mold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -395,20 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4931DFC6-9B70-5E41-9EE9-C78341670FFA}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>670</v>
@@ -455,7 +467,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>670</v>
@@ -544,7 +556,81 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>296</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>662</v>
+      </c>
+      <c r="E4">
+        <v>899</v>
+      </c>
+      <c r="F4">
+        <v>1163</v>
+      </c>
+      <c r="G4">
+        <v>1406</v>
+      </c>
+      <c r="H4">
+        <v>1732</v>
+      </c>
+      <c r="I4">
+        <v>1865</v>
+      </c>
+      <c r="J4">
+        <v>1925</v>
+      </c>
+      <c r="K4">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>296</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>662</v>
+      </c>
+      <c r="E5">
+        <v>899</v>
+      </c>
+      <c r="F5">
+        <v>1165</v>
+      </c>
+      <c r="G5">
+        <v>1410</v>
+      </c>
+      <c r="H5">
+        <v>1724</v>
+      </c>
+      <c r="I5">
+        <v>1738</v>
+      </c>
+      <c r="J5">
+        <v>1862</v>
+      </c>
+      <c r="K5">
+        <v>1925</v>
+      </c>
+      <c r="L5">
+        <v>2043</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>